--- a/Accounting_PL/ExcelHold/TestExcelHolder.xlsx
+++ b/Accounting_PL/ExcelHold/TestExcelHolder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dynamic Elements 3\Desktop\File_Hold\Accounting_PL\ExcelHold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File_Hold\Accounting_PL\ExcelHold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03FA1364-AC16-4225-B012-49F6E7B07476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCB65490-AA63-49FA-BFFB-9748C938F226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="2420" windowWidth="28800" windowHeight="15450" xr2:uid="{A38A937B-2F8D-4389-995C-0BE08A37BE26}"/>
+    <workbookView xWindow="135" yWindow="120" windowWidth="9750" windowHeight="8265" xr2:uid="{8886D76C-413C-44AB-8384-B71355224D54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,14 +421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C9A1F0-667D-4C3B-A53B-42F67FE6A67C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1411B845-D050-485D-8F4F-141285242666}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -436,7 +436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -444,7 +444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -452,7 +452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -463,7 +463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -477,7 +477,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -491,7 +491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -505,7 +505,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -519,7 +519,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>

--- a/Accounting_PL/ExcelHold/TestExcelHolder.xlsx
+++ b/Accounting_PL/ExcelHold/TestExcelHolder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File_Hold\Accounting_PL\ExcelHold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCB65490-AA63-49FA-BFFB-9748C938F226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{477C5325-4BB2-4160-924D-58C3D03077EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="120" windowWidth="9750" windowHeight="8265" xr2:uid="{8886D76C-413C-44AB-8384-B71355224D54}"/>
+    <workbookView xWindow="135" yWindow="120" windowWidth="9750" windowHeight="8265" xr2:uid="{04F45701-A58F-4103-B66E-591634780DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1411B845-D050-485D-8F4F-141285242666}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E0291B-7F9C-4FB6-A249-BC159C0C1842}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Accounting_PL/ExcelHold/TestExcelHolder.xlsx
+++ b/Accounting_PL/ExcelHold/TestExcelHolder.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File_Hold\Accounting_PL\ExcelHold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taylo\Documents\File_Hold\Accounting_PL\ExcelHold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{477C5325-4BB2-4160-924D-58C3D03077EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F4945DA-EF91-4394-9E52-409EFED3A984}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="120" windowWidth="9750" windowHeight="8265" xr2:uid="{04F45701-A58F-4103-B66E-591634780DE0}"/>
+    <workbookView xWindow="1575" yWindow="1665" windowWidth="8835" windowHeight="7545" xr2:uid="{CA346E9C-F69D-434A-BE2E-797B7FFB1D1E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -421,10 +422,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E0291B-7F9C-4FB6-A249-BC159C0C1842}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E651A1B2-E09D-4BD0-9A29-9B77BB387D14}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE118852-B9C8-4F54-BC57-9C740EF1778B}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
